--- a/xlsx/移民_intext.xlsx
+++ b/xlsx/移民_intext.xlsx
@@ -29,19 +29,19 @@
     <t>人口</t>
   </si>
   <si>
-    <t>政策_政策_美國_移民</t>
+    <t>政策_政策_美国_移民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3</t>
   </si>
   <si>
-    <t>現代</t>
+    <t>现代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%9C%8B%E5%AE%B6</t>
   </si>
   <si>
-    <t>民族國家</t>
+    <t>民族国家</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%BB%E6%B0%91%E5%87%BA%E5%A2%83</t>
@@ -53,19 +53,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E4%BE%86%E7%A7%BB%E6%B0%91</t>
   </si>
   <si>
-    <t>外來移民</t>
+    <t>外来移民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%A4%A7%E7%99%BC%E7%8F%BE</t>
   </si>
   <si>
-    <t>地理大發現</t>
+    <t>地理大发现</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5</t>
   </si>
   <si>
-    <t>勞工</t>
+    <t>劳工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E7%90%83%E5%8C%96</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%B7%E5%BE%99</t>
   </si>
   <si>
-    <t>人口遷徙</t>
+    <t>人口迁徙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B3%95%E7%A7%BB%E6%B0%91</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E6%95%99%E8%82%B2%E9%83%A8</t>
   </si>
   <si>
-    <t>中華民國教育部</t>
+    <t>中华民国教育部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E4%BA%BA%E5%8F%A3</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E7%89%A9%E5%AD%B8</t>
   </si>
   <si>
-    <t>生物學</t>
+    <t>生物学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E6%8E%A7%E5%88%B6</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E9%81%8E%E5%A4%9A</t>
   </si>
   <si>
-    <t>人口過多</t>
+    <t>人口过多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%80%81%E5%8C%96</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%A7%E5%88%A5%E6%AF%94</t>
   </si>
   <si>
-    <t>性別比</t>
+    <t>性别比</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%84%E6%9C%9F%E5%AF%BF%E5%91%BD</t>
@@ -251,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B7%B1%E5%B1%A4%E7%94%9F%E6%85%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>深層生態學</t>
+    <t>深层生态学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%AE%E9%A3%9F%E5%AE%89%E5%85%A8</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A3%B2%E6%81%AF%E5%9C%B0%E7%A0%B4%E5%A3%9E</t>
   </si>
   <si>
-    <t>棲息地破壞</t>
+    <t>栖息地破坏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E8%83%BD%E6%BA%90%E6%B6%88%E8%80%97%E9%87%8F</t>
@@ -323,13 +323,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E6%88%90%E5%B9%B4%E4%BA%BA%E7%95%B6%E4%B8%AD%E8%89%BE%E6%BB%8B%E7%97%85%E6%94%9C%E5%B8%B6%E7%97%85%E6%AF%92%E8%80%85%E6%95%B8%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國成年人當中艾滋病攜帶病毒者數量列表</t>
+    <t>各国成年人当中艾滋病携带病毒者数量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%98%E5%AD%97%E7%8E%87</t>
   </si>
   <si>
-    <t>識字率</t>
+    <t>识字率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E8%90%A5%E5%85%BB%E4%B8%8D%E8%89%AF%E4%BA%BA%E5%8F%A3%E6%AF%94%E4%BE%8B%E5%88%97%E8%A1%A8</t>
@@ -359,13 +359,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%80%8B%E5%B0%8F%E5%B0%8F%E7%9A%84%E5%BB%BA%E8%AD%B0</t>
   </si>
   <si>
-    <t>一個小小的建議</t>
+    <t>一个小小的建议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E8%AB%96</t>
   </si>
   <si>
-    <t>人口論</t>
+    <t>人口论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A2%9E%E9%95%BF%E7%9A%84%E6%9E%81%E9%99%90</t>
